--- a/reports/vivado/OperationChaining6nsSolution/power/OperationChaining6nsClocksPowerReport.xlsx
+++ b/reports/vivado/OperationChaining6nsSolution/power/OperationChaining6nsClocksPowerReport.xlsx
@@ -186,7 +186,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="2">
-        <v>8.851666352711618E-4</v>
+        <v>0.002092533279210329</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>10</v>
@@ -218,7 +218,7 @@
     </row>
     <row r="3" outlineLevel="1">
       <c r="A3" t="n" s="5">
-        <v>8.851666934788227E-4</v>
+        <v>0.002092533279210329</v>
       </c>
       <c r="B3" t="s" s="4">
         <v>12</v>
@@ -236,13 +236,13 @@
         <v>13</v>
       </c>
       <c r="G3" t="n" s="7">
-        <v>278.0</v>
+        <v>279.0</v>
       </c>
       <c r="H3" t="n" s="7">
-        <v>154.0</v>
+        <v>81.0</v>
       </c>
       <c r="I3" t="n" s="2">
-        <v>1.8051949739456177</v>
+        <v>3.444443941116333</v>
       </c>
       <c r="J3" t="s" s="4">
         <v>13</v>
@@ -250,7 +250,7 @@
     </row>
     <row r="4" outlineLevel="2">
       <c r="A4" t="n" s="8">
-        <v>8.851666934788227E-4</v>
+        <v>0.002092533279210329</v>
       </c>
       <c r="B4" t="s" s="4">
         <v>12</v>
